--- a/data/pca/factorExposure/factorExposure_2009-08-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01770084442887172</v>
+        <v>0.01709506439659147</v>
       </c>
       <c r="C2">
-        <v>0.00159128168398841</v>
+        <v>-0.001060973729531969</v>
       </c>
       <c r="D2">
-        <v>-0.004134977529256552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009710249529624938</v>
+      </c>
+      <c r="E2">
+        <v>0.002246218113307567</v>
+      </c>
+      <c r="F2">
+        <v>0.01408933280158626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09449845094255069</v>
+        <v>0.09323269147435173</v>
       </c>
       <c r="C4">
-        <v>0.020645264360865</v>
+        <v>-0.0146325684996265</v>
       </c>
       <c r="D4">
-        <v>-0.06697481815174906</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08374431774323471</v>
+      </c>
+      <c r="E4">
+        <v>0.02872594216927085</v>
+      </c>
+      <c r="F4">
+        <v>-0.03331382221203504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1491297753441019</v>
+        <v>0.1598593021140166</v>
       </c>
       <c r="C6">
-        <v>0.02798329205786502</v>
+        <v>-0.02737487151041605</v>
       </c>
       <c r="D6">
-        <v>0.02658227683118408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02542069993351147</v>
+      </c>
+      <c r="E6">
+        <v>0.009085506955886325</v>
+      </c>
+      <c r="F6">
+        <v>-0.04055038760108097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06294645707255786</v>
+        <v>0.06311979497823167</v>
       </c>
       <c r="C7">
-        <v>0.002672207065019606</v>
+        <v>0.001706993833205002</v>
       </c>
       <c r="D7">
-        <v>-0.04020395864994621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05202462084457127</v>
+      </c>
+      <c r="E7">
+        <v>0.01144005035553028</v>
+      </c>
+      <c r="F7">
+        <v>-0.04656890246952089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06341399313745529</v>
+        <v>0.05774039834982395</v>
       </c>
       <c r="C8">
-        <v>-0.01077119856211094</v>
+        <v>0.01301494037990019</v>
       </c>
       <c r="D8">
-        <v>-0.02332421580386383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03154715276524748</v>
+      </c>
+      <c r="E8">
+        <v>0.01766407688505912</v>
+      </c>
+      <c r="F8">
+        <v>0.02537022045243932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07291507175739829</v>
+        <v>0.07103944476741807</v>
       </c>
       <c r="C9">
-        <v>0.01699817353292367</v>
+        <v>-0.01028668616724122</v>
       </c>
       <c r="D9">
-        <v>-0.06947200250851936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0872516177086867</v>
+      </c>
+      <c r="E9">
+        <v>0.02436812058912849</v>
+      </c>
+      <c r="F9">
+        <v>-0.04719577787497986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.0833228519907738</v>
+        <v>0.08985534114914757</v>
       </c>
       <c r="C10">
-        <v>0.01309042994524846</v>
+        <v>-0.02083347016403935</v>
       </c>
       <c r="D10">
-        <v>0.1665894730606765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1625470760268975</v>
+      </c>
+      <c r="E10">
+        <v>-0.03189307943873958</v>
+      </c>
+      <c r="F10">
+        <v>0.05742647026140688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09286140755316644</v>
+        <v>0.08799384258891359</v>
       </c>
       <c r="C11">
-        <v>0.01770414644930711</v>
+        <v>-0.01060251256697459</v>
       </c>
       <c r="D11">
-        <v>-0.09805754290641164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169368270458053</v>
+      </c>
+      <c r="E11">
+        <v>0.04617610683805199</v>
+      </c>
+      <c r="F11">
+        <v>-0.02257978563499536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09880799908462146</v>
+        <v>0.09136442533572987</v>
       </c>
       <c r="C12">
-        <v>0.01556588995154761</v>
+        <v>-0.007900145723539889</v>
       </c>
       <c r="D12">
-        <v>-0.1024090276227483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316590134704383</v>
+      </c>
+      <c r="E12">
+        <v>0.04565909329671616</v>
+      </c>
+      <c r="F12">
+        <v>-0.03125995912156049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04412192668458106</v>
+        <v>0.04179471093415696</v>
       </c>
       <c r="C13">
-        <v>0.00587677325706015</v>
+        <v>-0.002470150541637019</v>
       </c>
       <c r="D13">
-        <v>-0.03174811737240001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05359100230183629</v>
+      </c>
+      <c r="E13">
+        <v>-0.003487613191808682</v>
+      </c>
+      <c r="F13">
+        <v>-0.001236671720091427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01980399541814257</v>
+        <v>0.0236760609822813</v>
       </c>
       <c r="C14">
-        <v>0.01509726290136321</v>
+        <v>-0.01374572676935263</v>
       </c>
       <c r="D14">
-        <v>-0.02525442137253217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0332536247093076</v>
+      </c>
+      <c r="E14">
+        <v>0.01868414618398807</v>
+      </c>
+      <c r="F14">
+        <v>-0.01370943100290666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03447294694885884</v>
+        <v>0.03295398086721172</v>
       </c>
       <c r="C15">
-        <v>0.007662667673605715</v>
+        <v>-0.004726053004098033</v>
       </c>
       <c r="D15">
-        <v>-0.03111273776225296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04511483876500744</v>
+      </c>
+      <c r="E15">
+        <v>0.006064966668042239</v>
+      </c>
+      <c r="F15">
+        <v>-0.02526414583357002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07805233787528032</v>
+        <v>0.07368772777152226</v>
       </c>
       <c r="C16">
-        <v>0.008441849761176448</v>
+        <v>-0.001096064562550921</v>
       </c>
       <c r="D16">
-        <v>-0.1002738457129457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1274631869845577</v>
+      </c>
+      <c r="E16">
+        <v>0.0602680836674414</v>
+      </c>
+      <c r="F16">
+        <v>-0.0271660437841119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.000726304665951032</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002727744639799145</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001627511967929637</v>
+      </c>
+      <c r="E17">
+        <v>0.001125254550521206</v>
+      </c>
+      <c r="F17">
+        <v>0.002518476757434265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01742835929609604</v>
+        <v>0.03810045098390692</v>
       </c>
       <c r="C18">
-        <v>-0.003140218962487941</v>
+        <v>0.002874674451621843</v>
       </c>
       <c r="D18">
-        <v>-0.02993656566282569</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01583293019468712</v>
+      </c>
+      <c r="E18">
+        <v>-0.007935302508362446</v>
+      </c>
+      <c r="F18">
+        <v>0.008665919001982625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06620328439292159</v>
+        <v>0.06304467394391229</v>
       </c>
       <c r="C20">
-        <v>0.006570778748595634</v>
+        <v>-0.0004381423453927106</v>
       </c>
       <c r="D20">
-        <v>-0.05268911450507399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07712375496868082</v>
+      </c>
+      <c r="E20">
+        <v>0.05594311264353068</v>
+      </c>
+      <c r="F20">
+        <v>-0.02994508164788414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04048832337079464</v>
+        <v>0.04092556952929892</v>
       </c>
       <c r="C21">
-        <v>0.009843991675896157</v>
+        <v>-0.006349027317921565</v>
       </c>
       <c r="D21">
-        <v>-0.03083333143280392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03894172259926015</v>
+      </c>
+      <c r="E21">
+        <v>-0.0002157218373286362</v>
+      </c>
+      <c r="F21">
+        <v>0.02352444565101861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04099606912517134</v>
+        <v>0.04275683503243133</v>
       </c>
       <c r="C22">
-        <v>0.00104119728538781</v>
+        <v>-0.001065837793208123</v>
       </c>
       <c r="D22">
-        <v>0.01039997354275814</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004749377448883035</v>
+      </c>
+      <c r="E22">
+        <v>0.03669523551737905</v>
+      </c>
+      <c r="F22">
+        <v>0.04009273206048167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04095929572095698</v>
+        <v>0.04273263517086013</v>
       </c>
       <c r="C23">
-        <v>0.001031207144448215</v>
+        <v>-0.001057243000760869</v>
       </c>
       <c r="D23">
-        <v>0.01037929531595255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004764738416016833</v>
+      </c>
+      <c r="E23">
+        <v>0.03687819225043196</v>
+      </c>
+      <c r="F23">
+        <v>0.04005306106951406</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08441762164892351</v>
+        <v>0.07977974477474653</v>
       </c>
       <c r="C24">
-        <v>0.008718176672821343</v>
+        <v>-0.001818538352807659</v>
       </c>
       <c r="D24">
-        <v>-0.104976140911883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1199186268931828</v>
+      </c>
+      <c r="E24">
+        <v>0.04846591152377342</v>
+      </c>
+      <c r="F24">
+        <v>-0.02959701883573847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08941680525323112</v>
+        <v>0.08458127119956467</v>
       </c>
       <c r="C25">
-        <v>0.01123918483317474</v>
+        <v>-0.0043759410244661</v>
       </c>
       <c r="D25">
-        <v>-0.09123144231058701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1093038940070723</v>
+      </c>
+      <c r="E25">
+        <v>0.03192867757920195</v>
+      </c>
+      <c r="F25">
+        <v>-0.02625242795196003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05954923332610499</v>
+        <v>0.05934674471994113</v>
       </c>
       <c r="C26">
-        <v>0.0179692753601196</v>
+        <v>-0.0145720336150532</v>
       </c>
       <c r="D26">
-        <v>-0.01841607524781054</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04234675466000196</v>
+      </c>
+      <c r="E26">
+        <v>0.02991660208825515</v>
+      </c>
+      <c r="F26">
+        <v>0.00577754927256504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1308219241115504</v>
+        <v>0.1415559543257522</v>
       </c>
       <c r="C28">
-        <v>0.01202522245763024</v>
+        <v>-0.0223300881297981</v>
       </c>
       <c r="D28">
-        <v>0.2724544725309693</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2613231262456845</v>
+      </c>
+      <c r="E28">
+        <v>-0.06781446040163513</v>
+      </c>
+      <c r="F28">
+        <v>-0.003182165540920283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02614355717648493</v>
+        <v>0.02850227858336743</v>
       </c>
       <c r="C29">
-        <v>0.009693872731880042</v>
+        <v>-0.008784983913879099</v>
       </c>
       <c r="D29">
-        <v>-0.0225375234106093</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03093728274461734</v>
+      </c>
+      <c r="E29">
+        <v>0.01358631129671436</v>
+      </c>
+      <c r="F29">
+        <v>0.01272470783387689</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06585311486580543</v>
+        <v>0.05912180298961064</v>
       </c>
       <c r="C30">
-        <v>0.01013966666890697</v>
+        <v>-0.002725375428098842</v>
       </c>
       <c r="D30">
-        <v>-0.06151844087996361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0880450870552974</v>
+      </c>
+      <c r="E30">
+        <v>0.01394671302372224</v>
+      </c>
+      <c r="F30">
+        <v>-0.07958780194037254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05130714902090866</v>
+        <v>0.05130532031707657</v>
       </c>
       <c r="C31">
-        <v>0.01709139554499613</v>
+        <v>-0.01585254169691665</v>
       </c>
       <c r="D31">
-        <v>-0.020076382320285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02448028103024359</v>
+      </c>
+      <c r="E31">
+        <v>0.0287392102304931</v>
+      </c>
+      <c r="F31">
+        <v>0.001433937543477458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04758315414138534</v>
+        <v>0.05126612642812541</v>
       </c>
       <c r="C32">
-        <v>0.002227500987380676</v>
+        <v>0.001661259819261381</v>
       </c>
       <c r="D32">
-        <v>-0.02009215363543868</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03562570281142789</v>
+      </c>
+      <c r="E32">
+        <v>0.03405613434273401</v>
+      </c>
+      <c r="F32">
+        <v>-0.003263730877623402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09299762894792989</v>
+        <v>0.08899827395144072</v>
       </c>
       <c r="C33">
-        <v>0.01392480193996403</v>
+        <v>-0.006441693763378988</v>
       </c>
       <c r="D33">
-        <v>-0.07889346169308277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1024146920188011</v>
+      </c>
+      <c r="E33">
+        <v>0.04540764878341393</v>
+      </c>
+      <c r="F33">
+        <v>-0.03909859230530922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07119191381968934</v>
+        <v>0.06779258699418306</v>
       </c>
       <c r="C34">
-        <v>0.01600258891275205</v>
+        <v>-0.01007096076974718</v>
       </c>
       <c r="D34">
-        <v>-0.08590027948158634</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1098144630363732</v>
+      </c>
+      <c r="E34">
+        <v>0.03504909963003046</v>
+      </c>
+      <c r="F34">
+        <v>-0.03287867640434348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02404126468959411</v>
+        <v>0.02602471739496917</v>
       </c>
       <c r="C35">
-        <v>0.002930499136378441</v>
+        <v>-0.002740850558102412</v>
       </c>
       <c r="D35">
-        <v>-0.006700168043121547</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01212403811799242</v>
+      </c>
+      <c r="E35">
+        <v>0.01284574586407618</v>
+      </c>
+      <c r="F35">
+        <v>-0.001146955653198401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02643810588245576</v>
+        <v>0.0273436302421346</v>
       </c>
       <c r="C36">
-        <v>0.007825100943521788</v>
+        <v>-0.006777935973260953</v>
       </c>
       <c r="D36">
-        <v>-0.03865356944491076</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03947961711641094</v>
+      </c>
+      <c r="E36">
+        <v>0.01648537004804736</v>
+      </c>
+      <c r="F36">
+        <v>-0.01465057389548395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-3.725085228002045e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.000546778673100939</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002457320236155814</v>
+      </c>
+      <c r="E37">
+        <v>-0.0005312965419370578</v>
+      </c>
+      <c r="F37">
+        <v>0.002128420173003274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1166640906035544</v>
+        <v>0.1036094969495527</v>
       </c>
       <c r="C39">
-        <v>0.02451246003525968</v>
+        <v>-0.015817186028129</v>
       </c>
       <c r="D39">
-        <v>-0.1406091483032947</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1534266355214676</v>
+      </c>
+      <c r="E39">
+        <v>0.05874753373912542</v>
+      </c>
+      <c r="F39">
+        <v>-0.0306936069325977</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03958448238076723</v>
+        <v>0.04357255097195583</v>
       </c>
       <c r="C40">
-        <v>0.009410949402461843</v>
+        <v>-0.007445312324314214</v>
       </c>
       <c r="D40">
-        <v>-0.01168303104317978</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03073367929588874</v>
+      </c>
+      <c r="E40">
+        <v>0.001916453374893791</v>
+      </c>
+      <c r="F40">
+        <v>0.01907729402637194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02518970191183157</v>
+        <v>0.02759411289536496</v>
       </c>
       <c r="C41">
-        <v>0.007095696880430912</v>
+        <v>-0.006889612256224914</v>
       </c>
       <c r="D41">
-        <v>-0.009826157422047366</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01066172033804582</v>
+      </c>
+      <c r="E41">
+        <v>0.01192316860399946</v>
+      </c>
+      <c r="F41">
+        <v>0.005792198290361262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04213852676917084</v>
+        <v>0.04087397923837317</v>
       </c>
       <c r="C43">
-        <v>0.008135122630853196</v>
+        <v>-0.00727499756959666</v>
       </c>
       <c r="D43">
-        <v>-0.01420632091732385</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01877874423289044</v>
+      </c>
+      <c r="E43">
+        <v>0.02531523587096817</v>
+      </c>
+      <c r="F43">
+        <v>0.01284456104904435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07440408744347049</v>
+        <v>0.07911713360958059</v>
       </c>
       <c r="C44">
-        <v>0.02636915439546105</v>
+        <v>-0.01903364099589614</v>
       </c>
       <c r="D44">
-        <v>-0.07965107535797954</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09718563062299758</v>
+      </c>
+      <c r="E44">
+        <v>0.06131387847240496</v>
+      </c>
+      <c r="F44">
+        <v>-0.1586065523691222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02136556453854136</v>
+        <v>0.02326549451785441</v>
       </c>
       <c r="C46">
-        <v>0.003848607477495976</v>
+        <v>-0.003365489303908802</v>
       </c>
       <c r="D46">
-        <v>-0.005282220989256559</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01280025756590326</v>
+      </c>
+      <c r="E46">
+        <v>0.02597400035557994</v>
+      </c>
+      <c r="F46">
+        <v>0.007164691936128977</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05318402659432301</v>
+        <v>0.05243063153712955</v>
       </c>
       <c r="C47">
-        <v>0.004607325023939599</v>
+        <v>-0.003939711294064681</v>
       </c>
       <c r="D47">
-        <v>-0.00698413554079782</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01133600469859454</v>
+      </c>
+      <c r="E47">
+        <v>0.02327549927628295</v>
+      </c>
+      <c r="F47">
+        <v>0.03222595593306828</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04986706548468287</v>
+        <v>0.05035710210552482</v>
       </c>
       <c r="C48">
-        <v>0.005129172357014987</v>
+        <v>-0.002196657746841105</v>
       </c>
       <c r="D48">
-        <v>-0.0410048614665492</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05089108036441168</v>
+      </c>
+      <c r="E48">
+        <v>-0.004543230183071438</v>
+      </c>
+      <c r="F48">
+        <v>-0.008646571454454346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2021761324874964</v>
+        <v>0.2003346839667373</v>
       </c>
       <c r="C49">
-        <v>0.02177626021940966</v>
+        <v>-0.01924683013895882</v>
       </c>
       <c r="D49">
-        <v>0.01721445232246119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007229566731306161</v>
+      </c>
+      <c r="E49">
+        <v>0.03099260557481692</v>
+      </c>
+      <c r="F49">
+        <v>-0.04054872365652891</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05061901168416413</v>
+        <v>0.05176961426293337</v>
       </c>
       <c r="C50">
-        <v>0.01312850774210687</v>
+        <v>-0.01155450490527573</v>
       </c>
       <c r="D50">
-        <v>-0.0192540387501779</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02353772388400964</v>
+      </c>
+      <c r="E50">
+        <v>0.02987158351660579</v>
+      </c>
+      <c r="F50">
+        <v>-0.00977255597567786</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1565164652751382</v>
+        <v>0.1502038924870784</v>
       </c>
       <c r="C52">
-        <v>0.02014489564380531</v>
+        <v>-0.01835207345151803</v>
       </c>
       <c r="D52">
-        <v>-0.0486253100779808</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04099191327203408</v>
+      </c>
+      <c r="E52">
+        <v>0.02118418102653968</v>
+      </c>
+      <c r="F52">
+        <v>-0.04401436357644072</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1731488485209571</v>
+        <v>0.1708874103937477</v>
       </c>
       <c r="C53">
-        <v>0.0199427214214745</v>
+        <v>-0.02047625971960368</v>
       </c>
       <c r="D53">
-        <v>-0.01179206870884859</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003371044133313229</v>
+      </c>
+      <c r="E53">
+        <v>0.02794033228260713</v>
+      </c>
+      <c r="F53">
+        <v>-0.07353947521264488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01775151431521793</v>
+        <v>0.02070276746231066</v>
       </c>
       <c r="C54">
-        <v>0.01260154300276645</v>
+        <v>-0.01111086280895911</v>
       </c>
       <c r="D54">
-        <v>-0.02739472300570123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03448500233406265</v>
+      </c>
+      <c r="E54">
+        <v>0.02206959784076314</v>
+      </c>
+      <c r="F54">
+        <v>0.001716357696705515</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1158248559198344</v>
+        <v>0.1154059775976736</v>
       </c>
       <c r="C55">
-        <v>0.01781995415963585</v>
+        <v>-0.01804446051203368</v>
       </c>
       <c r="D55">
-        <v>-0.01065530843603559</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006899345649933754</v>
+      </c>
+      <c r="E55">
+        <v>0.02358826344517746</v>
+      </c>
+      <c r="F55">
+        <v>-0.04656483175225078</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1791986878075639</v>
+        <v>0.1769622028817306</v>
       </c>
       <c r="C56">
-        <v>0.01752749016647058</v>
+        <v>-0.01848805118375925</v>
       </c>
       <c r="D56">
-        <v>-0.009217357083379663</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003989552594909763</v>
+      </c>
+      <c r="E56">
+        <v>0.03163616834431517</v>
+      </c>
+      <c r="F56">
+        <v>-0.05344448448757718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04923071030756959</v>
+        <v>0.04524295462621504</v>
       </c>
       <c r="C58">
-        <v>0.005788572013168826</v>
+        <v>0.000259352001565139</v>
       </c>
       <c r="D58">
-        <v>-0.05531284590639193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07193211816532186</v>
+      </c>
+      <c r="E58">
+        <v>0.03319855059237693</v>
+      </c>
+      <c r="F58">
+        <v>0.0364524291009211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1608683916470257</v>
+        <v>0.1666997498616731</v>
       </c>
       <c r="C59">
-        <v>0.01367443431437546</v>
+        <v>-0.02282402736869645</v>
       </c>
       <c r="D59">
-        <v>0.2240168199240161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2178940268761221</v>
+      </c>
+      <c r="E59">
+        <v>-0.04730807432590937</v>
+      </c>
+      <c r="F59">
+        <v>0.03477387009017158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2377275660474443</v>
+        <v>0.2322717023128481</v>
       </c>
       <c r="C60">
-        <v>0.001647484963772575</v>
+        <v>0.001410476444392252</v>
       </c>
       <c r="D60">
-        <v>-0.04590939592716817</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03898957620704822</v>
+      </c>
+      <c r="E60">
+        <v>0.007064356904518471</v>
+      </c>
+      <c r="F60">
+        <v>0.000180044434971903</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0878706828753123</v>
+        <v>0.07969915866084086</v>
       </c>
       <c r="C61">
-        <v>0.01812852335388483</v>
+        <v>-0.01131283634491526</v>
       </c>
       <c r="D61">
-        <v>-0.09952536881941801</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1175342160702212</v>
+      </c>
+      <c r="E61">
+        <v>0.03888087257963929</v>
+      </c>
+      <c r="F61">
+        <v>-0.01336871099907669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.170093935626369</v>
+        <v>0.1684953907525796</v>
       </c>
       <c r="C62">
-        <v>0.02137566357291959</v>
+        <v>-0.02105720056926464</v>
       </c>
       <c r="D62">
-        <v>-0.006270409617250942</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.00430514694840572</v>
+      </c>
+      <c r="E62">
+        <v>0.03203717886843975</v>
+      </c>
+      <c r="F62">
+        <v>-0.03753939725848832</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04373453315055643</v>
+        <v>0.04600922507383134</v>
       </c>
       <c r="C63">
-        <v>0.005912814843688109</v>
+        <v>-0.001767230411619669</v>
       </c>
       <c r="D63">
-        <v>-0.04389678793181902</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05956619791493935</v>
+      </c>
+      <c r="E63">
+        <v>0.02404606176906146</v>
+      </c>
+      <c r="F63">
+        <v>-0.003454940583907615</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1128875993680923</v>
+        <v>0.110735596121448</v>
       </c>
       <c r="C64">
-        <v>0.01511851992247034</v>
+        <v>-0.01173589854651456</v>
       </c>
       <c r="D64">
-        <v>-0.03151214853839434</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04340417835801902</v>
+      </c>
+      <c r="E64">
+        <v>0.02276356853760315</v>
+      </c>
+      <c r="F64">
+        <v>-0.02610157170455721</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1395932810807793</v>
+        <v>0.1512718559870107</v>
       </c>
       <c r="C65">
-        <v>0.03373707752760884</v>
+        <v>-0.03449872997715221</v>
       </c>
       <c r="D65">
-        <v>0.05026154303244826</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04564774934341982</v>
+      </c>
+      <c r="E65">
+        <v>0.004698642508626093</v>
+      </c>
+      <c r="F65">
+        <v>-0.03526098829669062</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.139681407488295</v>
+        <v>0.1236379056225824</v>
       </c>
       <c r="C66">
-        <v>0.02272414172620543</v>
+        <v>-0.01393609612683923</v>
       </c>
       <c r="D66">
-        <v>-0.1192359174188968</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1410993267291544</v>
+      </c>
+      <c r="E66">
+        <v>0.06407894830786472</v>
+      </c>
+      <c r="F66">
+        <v>-0.03408106552653001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06336620845983693</v>
+        <v>0.05650041384586738</v>
       </c>
       <c r="C67">
-        <v>0.005358321006921568</v>
+        <v>-0.002802203279523876</v>
       </c>
       <c r="D67">
-        <v>-0.05191901277205113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05541496958781163</v>
+      </c>
+      <c r="E67">
+        <v>0.01624561718370973</v>
+      </c>
+      <c r="F67">
+        <v>0.02913327120969319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1045702485650046</v>
+        <v>0.116453783383362</v>
       </c>
       <c r="C68">
-        <v>0.02203425541523309</v>
+        <v>-0.03311066341514447</v>
       </c>
       <c r="D68">
-        <v>0.2712146046927018</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2618050104097953</v>
+      </c>
+      <c r="E68">
+        <v>-0.08789957675047072</v>
+      </c>
+      <c r="F68">
+        <v>0.002721495269525643</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03967850996521</v>
+        <v>0.03861403339129408</v>
       </c>
       <c r="C69">
-        <v>0.001816132250517746</v>
+        <v>-0.001259659638662973</v>
       </c>
       <c r="D69">
-        <v>-0.00722116383762749</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00771460449190058</v>
+      </c>
+      <c r="E69">
+        <v>0.02313399253253384</v>
+      </c>
+      <c r="F69">
+        <v>-0.00105266846946712</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.065633134495588</v>
+        <v>0.06606155246377761</v>
       </c>
       <c r="C70">
-        <v>-0.02474743059393494</v>
+        <v>0.02747239143246825</v>
       </c>
       <c r="D70">
-        <v>0.007543577827076105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02448681109974632</v>
+      </c>
+      <c r="E70">
+        <v>-0.03171081034044389</v>
+      </c>
+      <c r="F70">
+        <v>0.1755214976958292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.12272961148756</v>
+        <v>0.1356723573222562</v>
       </c>
       <c r="C71">
-        <v>0.02569398309076567</v>
+        <v>-0.03752632811104219</v>
       </c>
       <c r="D71">
-        <v>0.2862622687025637</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2721587030872086</v>
+      </c>
+      <c r="E71">
+        <v>-0.09816016546638932</v>
+      </c>
+      <c r="F71">
+        <v>-0.003718392114463072</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1390602900723995</v>
+        <v>0.1434782151247608</v>
       </c>
       <c r="C72">
-        <v>0.0275726202559992</v>
+        <v>-0.02754488614101443</v>
       </c>
       <c r="D72">
-        <v>-0.001039309534146724</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004696982967490063</v>
+      </c>
+      <c r="E72">
+        <v>0.03645312755895844</v>
+      </c>
+      <c r="F72">
+        <v>-0.03106337183174911</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2068225027254209</v>
+        <v>0.2043815763754426</v>
       </c>
       <c r="C73">
-        <v>0.01727855166294722</v>
+        <v>-0.01351094455573047</v>
       </c>
       <c r="D73">
-        <v>-0.01350096044795757</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01710323925977658</v>
+      </c>
+      <c r="E73">
+        <v>0.06421582392842835</v>
+      </c>
+      <c r="F73">
+        <v>-0.04008420379261998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09350383386922943</v>
+        <v>0.09528212824622496</v>
       </c>
       <c r="C74">
-        <v>0.01393447561862989</v>
+        <v>-0.01386545510364904</v>
       </c>
       <c r="D74">
-        <v>-0.0193136111876679</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01554868236237687</v>
+      </c>
+      <c r="E74">
+        <v>0.04318936803560201</v>
+      </c>
+      <c r="F74">
+        <v>-0.05564619564634182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1337740326049091</v>
+        <v>0.1269986312445701</v>
       </c>
       <c r="C75">
-        <v>0.03018729227446732</v>
+        <v>-0.02877047274513913</v>
       </c>
       <c r="D75">
-        <v>-0.02906316770960822</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02829902200207562</v>
+      </c>
+      <c r="E75">
+        <v>0.05613475211311513</v>
+      </c>
+      <c r="F75">
+        <v>-0.02319078493738749</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08440832169384208</v>
+        <v>0.09000922347163903</v>
       </c>
       <c r="C77">
-        <v>0.01543258310367538</v>
+        <v>-0.008193732453545322</v>
       </c>
       <c r="D77">
-        <v>-0.09428086848308824</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1137407825628729</v>
+      </c>
+      <c r="E77">
+        <v>0.04389754100810308</v>
+      </c>
+      <c r="F77">
+        <v>-0.0329116222563017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1036554947254871</v>
+        <v>0.1011459744278427</v>
       </c>
       <c r="C78">
-        <v>0.04580622454229064</v>
+        <v>-0.03929668993304915</v>
       </c>
       <c r="D78">
-        <v>-0.1044557645379681</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1150888216719535</v>
+      </c>
+      <c r="E78">
+        <v>0.07706031905533907</v>
+      </c>
+      <c r="F78">
+        <v>-0.05158383556982911</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1639939132054545</v>
+        <v>0.1633902994260026</v>
       </c>
       <c r="C79">
-        <v>0.02454714426447441</v>
+        <v>-0.02356246674603624</v>
       </c>
       <c r="D79">
-        <v>-0.01335479840861373</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01189895090034033</v>
+      </c>
+      <c r="E79">
+        <v>0.04411741595791389</v>
+      </c>
+      <c r="F79">
+        <v>-0.01200298914941022</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08614873857155844</v>
+        <v>0.08287163163991904</v>
       </c>
       <c r="C80">
-        <v>0.002042031060034509</v>
+        <v>0.0003350191099583425</v>
       </c>
       <c r="D80">
-        <v>-0.04282290958588812</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05460128062385555</v>
+      </c>
+      <c r="E80">
+        <v>0.03528846821155743</v>
+      </c>
+      <c r="F80">
+        <v>0.01854329669995574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1203226529329081</v>
+        <v>0.1177995217936445</v>
       </c>
       <c r="C81">
-        <v>0.03233028733227038</v>
+        <v>-0.03236342482701569</v>
       </c>
       <c r="D81">
-        <v>-0.0230023501705925</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01337956803185823</v>
+      </c>
+      <c r="E81">
+        <v>0.0546015687306296</v>
+      </c>
+      <c r="F81">
+        <v>-0.01977894424822081</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1661220953278227</v>
+        <v>0.1659764911799129</v>
       </c>
       <c r="C82">
-        <v>0.02525192565032938</v>
+        <v>-0.02588770827515413</v>
       </c>
       <c r="D82">
-        <v>-0.01219190418509251</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001255491832308656</v>
+      </c>
+      <c r="E82">
+        <v>0.02450624389735033</v>
+      </c>
+      <c r="F82">
+        <v>-0.08076311336407545</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0657810706213349</v>
+        <v>0.05811469258002923</v>
       </c>
       <c r="C83">
-        <v>0.00605778122826381</v>
+        <v>-0.002990363442348628</v>
       </c>
       <c r="D83">
-        <v>-0.03458521789311091</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04903398350000352</v>
+      </c>
+      <c r="E83">
+        <v>0.00240576788408932</v>
+      </c>
+      <c r="F83">
+        <v>0.02816424209725181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06423891699660415</v>
+        <v>0.05838881314511402</v>
       </c>
       <c r="C84">
-        <v>0.01467955188973364</v>
+        <v>-0.01094234952637084</v>
       </c>
       <c r="D84">
-        <v>-0.06505706087341144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07227593773209869</v>
+      </c>
+      <c r="E84">
+        <v>0.01454561102259656</v>
+      </c>
+      <c r="F84">
+        <v>-0.01399784117792097</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1374315521282663</v>
+        <v>0.1350117567714101</v>
       </c>
       <c r="C85">
-        <v>0.02882171428329952</v>
+        <v>-0.02874826927436571</v>
       </c>
       <c r="D85">
-        <v>-0.01658853779889867</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.008005288775936011</v>
+      </c>
+      <c r="E85">
+        <v>0.03510996127293976</v>
+      </c>
+      <c r="F85">
+        <v>-0.04705502272401423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1009433443527985</v>
+        <v>0.09291547316026048</v>
       </c>
       <c r="C86">
-        <v>-0.003385730270542766</v>
+        <v>0.006302146962836722</v>
       </c>
       <c r="D86">
-        <v>-0.002253075281478376</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05083794910064286</v>
+      </c>
+      <c r="E86">
+        <v>0.2420861485489857</v>
+      </c>
+      <c r="F86">
+        <v>0.9039640028174603</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09985682192367215</v>
+        <v>0.09365619913625957</v>
       </c>
       <c r="C87">
-        <v>0.02843693970116142</v>
+        <v>-0.01930446032442197</v>
       </c>
       <c r="D87">
-        <v>-0.06804582520130992</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09476917814590613</v>
+      </c>
+      <c r="E87">
+        <v>-0.05250813021499833</v>
+      </c>
+      <c r="F87">
+        <v>-0.04771150936733447</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06055530796446155</v>
+        <v>0.06010054089290762</v>
       </c>
       <c r="C88">
-        <v>0.005140600010489071</v>
+        <v>-0.002321500621047418</v>
       </c>
       <c r="D88">
-        <v>-0.05354323761705558</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04957123057140586</v>
+      </c>
+      <c r="E88">
+        <v>0.02397028439335925</v>
+      </c>
+      <c r="F88">
+        <v>-0.0155174764468111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1164900236256357</v>
+        <v>0.1262980973168029</v>
       </c>
       <c r="C89">
-        <v>0.002903558915120433</v>
+        <v>-0.01282399699901801</v>
       </c>
       <c r="D89">
-        <v>0.2619243401111487</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2434814944325076</v>
+      </c>
+      <c r="E89">
+        <v>-0.08980202518489444</v>
+      </c>
+      <c r="F89">
+        <v>0.01221305231550766</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1337125436960458</v>
+        <v>0.1504896727241121</v>
       </c>
       <c r="C90">
-        <v>0.02238963507857655</v>
+        <v>-0.03424173086879556</v>
       </c>
       <c r="D90">
-        <v>0.2737420288626687</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2700457887206004</v>
+      </c>
+      <c r="E90">
+        <v>-0.1138378718580614</v>
+      </c>
+      <c r="F90">
+        <v>0.01296197643417635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1201429066441073</v>
+        <v>0.1211868831602172</v>
       </c>
       <c r="C91">
-        <v>0.01949427052164429</v>
+        <v>-0.02040717567488326</v>
       </c>
       <c r="D91">
-        <v>0.008667403056669423</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01720326608222968</v>
+      </c>
+      <c r="E91">
+        <v>0.054181912921139</v>
+      </c>
+      <c r="F91">
+        <v>0.0002625040815741942</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1360913416523034</v>
+        <v>0.1457736847314484</v>
       </c>
       <c r="C92">
-        <v>0.01232703890633952</v>
+        <v>-0.02464001952315222</v>
       </c>
       <c r="D92">
-        <v>0.3083471428789942</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2899992648243667</v>
+      </c>
+      <c r="E92">
+        <v>-0.102564434897245</v>
+      </c>
+      <c r="F92">
+        <v>0.02181130422129931</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1371037251198353</v>
+        <v>0.150921687707904</v>
       </c>
       <c r="C93">
-        <v>0.01800199695546988</v>
+        <v>-0.0290825538906083</v>
       </c>
       <c r="D93">
-        <v>0.2694572362470533</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2654384119974666</v>
+      </c>
+      <c r="E93">
+        <v>-0.07629057482696792</v>
+      </c>
+      <c r="F93">
+        <v>0.002189995460948292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1344043562581146</v>
+        <v>0.1277817887170543</v>
       </c>
       <c r="C94">
-        <v>0.02717001555004542</v>
+        <v>-0.02514184337103058</v>
       </c>
       <c r="D94">
-        <v>-0.04290820696436905</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03997411984939608</v>
+      </c>
+      <c r="E94">
+        <v>0.05629293336948124</v>
+      </c>
+      <c r="F94">
+        <v>-0.03606509267588882</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1254320101513616</v>
+        <v>0.1262070098487135</v>
       </c>
       <c r="C95">
-        <v>0.009973116831858763</v>
+        <v>-0.00314445814280078</v>
       </c>
       <c r="D95">
-        <v>-0.07883723231489778</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09796782124713639</v>
+      </c>
+      <c r="E95">
+        <v>0.05292117437019717</v>
+      </c>
+      <c r="F95">
+        <v>0.005004680357741205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1195195843398223</v>
+        <v>0.1118798179071788</v>
       </c>
       <c r="C96">
-        <v>-0.9870592499286648</v>
+        <v>0.9868572821276511</v>
       </c>
       <c r="D96">
-        <v>0.01233636543502738</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.0511640663692645</v>
+      </c>
+      <c r="E96">
+        <v>0.05191030524694049</v>
+      </c>
+      <c r="F96">
+        <v>-0.04271395662348535</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1924819875094502</v>
+        <v>0.1943532473156546</v>
       </c>
       <c r="C97">
-        <v>-0.005723538787369132</v>
+        <v>0.005760810193480187</v>
       </c>
       <c r="D97">
-        <v>0.01116686339881244</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02093012454756474</v>
+      </c>
+      <c r="E97">
+        <v>0.0224332536984256</v>
+      </c>
+      <c r="F97">
+        <v>0.09020652636046798</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1989378133517706</v>
+        <v>0.2064704305722036</v>
       </c>
       <c r="C98">
-        <v>0.01163435841419538</v>
+        <v>-0.007402384967176746</v>
       </c>
       <c r="D98">
-        <v>-0.009901106607655721</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01362581248827869</v>
+      </c>
+      <c r="E98">
+        <v>-0.07466053089044782</v>
+      </c>
+      <c r="F98">
+        <v>0.09121867332790047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05646591900838092</v>
+        <v>0.05498060406331368</v>
       </c>
       <c r="C99">
-        <v>-0.002027993880120664</v>
+        <v>0.00431979459434133</v>
       </c>
       <c r="D99">
-        <v>-0.02273818122031571</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03841142257621843</v>
+      </c>
+      <c r="E99">
+        <v>0.02150067076945494</v>
+      </c>
+      <c r="F99">
+        <v>-0.003166208897173627</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1423597357991615</v>
+        <v>0.1289967527924957</v>
       </c>
       <c r="C100">
-        <v>-0.03785814872588381</v>
+        <v>0.05227517812784013</v>
       </c>
       <c r="D100">
-        <v>-0.4180362875343329</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3509437952057042</v>
+      </c>
+      <c r="E100">
+        <v>-0.882657332559337</v>
+      </c>
+      <c r="F100">
+        <v>0.1682061133863542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02598931587746317</v>
+        <v>0.02844372753101664</v>
       </c>
       <c r="C101">
-        <v>0.009596289800435483</v>
+        <v>-0.008798987616213508</v>
       </c>
       <c r="D101">
-        <v>-0.02220852374011349</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03060503737945578</v>
+      </c>
+      <c r="E101">
+        <v>0.01300164589485532</v>
+      </c>
+      <c r="F101">
+        <v>0.01388087990987689</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
